--- a/data/trans_orig/IP04F-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP04F-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC870C1-A6F9-4921-8EC1-5B50477BD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A867DF57-5A42-46F0-8182-D71C8186D81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A886AC27-8249-4C6F-8F23-DE97273E78E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10A7DC27-B92F-4B7B-93AF-99AC8B4079F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -115,55 +115,55 @@
     <t>94,2%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -181,55 +181,55 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -247,19 +247,19 @@
     <t>80,1%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>79,76%</t>
@@ -268,31 +268,31 @@
     <t>76,03%</t>
   </si>
   <si>
-    <t>83,47%</t>
+    <t>83,24%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>16,53%</t>
+    <t>16,76%</t>
   </si>
   <si>
     <t>23,97%</t>
@@ -310,61 +310,61 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2015 (Tasa respuesta: 99,15%)</t>
+    <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2016 (Tasa respuesta: 99,15%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -379,16 +379,16 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>88,56%</t>
+    <t>89,86%</t>
   </si>
   <si>
     <t>98,72%</t>
@@ -397,19 +397,19 @@
     <t>95,12%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>4,5%</t>
@@ -418,16 +418,16 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>11,44%</t>
+    <t>10,14%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -436,55 +436,55 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -499,109 +499,109 @@
     <t>84,25%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>81,72%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>92,19%</t>
   </si>
   <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>Población según si posee otra vivienda que se pueda utilizar como residencia aunque no la utilice habitualmente en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1079,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0CD7D7-186A-4E7E-A182-640BA71C530C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D71325-D973-4D3F-B0D2-6988B1920374}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A182F1-AF61-48B7-93C6-5A48CF0078D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42372490-5A4C-4465-8839-7ED7CDFADAA3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3371,7 +3371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832866F-6F88-4647-98D8-8D5B3AEA5AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D82E3C-560B-4743-8E05-DD7A1157310C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
